--- a/data/trans_orig/P2404-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2404-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89E01ABD-0217-43C5-AE57-12808F2BBCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B708D52C-E747-479F-A485-AAD8DEE5AACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB0CF0C2-99C8-4D81-97F2-8459DBD73C23}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF7806A7-111D-4AA3-B7D7-E0651D4B2B48}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -415,7 +415,7 @@
     <t>1,41%</t>
   </si>
   <si>
-    <t>7,51%</t>
+    <t>9,12%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -424,478 +424,472 @@
     <t>1,01%</t>
   </si>
   <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
     <t>6,14%</t>
   </si>
   <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>93,86%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2015 (Tasa respuesta: 45,99%)</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2015 (Tasa respuesta: 45,99%)</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
     <t>5,79%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>7,37%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>92,56%</t>
   </si>
   <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>96,68%</t>
@@ -904,61 +898,67 @@
     <t>94,21%</t>
   </si>
   <si>
-    <t>98,34%</t>
-  </si>
-  <si>
     <t>94,41%</t>
   </si>
   <si>
-    <t>92,63%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>2,72%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>95,42%</t>
   </si>
   <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
   </si>
   <si>
     <t>98,21%</t>
   </si>
   <si>
-    <t>97,28%</t>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>96,57%</t>
   </si>
   <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
 </sst>
 </file>
@@ -1370,7 +1370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44946123-7A4E-4AEA-A2EC-408C8CF2CCA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0053192-1ADF-410D-86BE-673AFF4B936D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2433,7 +2433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB4FCF7-C782-441D-90F1-0A2090D52BEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF40D10-B550-4538-82F5-E696986CD1C0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2745,10 +2745,10 @@
         <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2763,13 @@
         <v>210361</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H8" s="7">
         <v>128</v>
@@ -2778,10 +2778,10 @@
         <v>138678</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -2796,10 +2796,10 @@
         <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2867,13 @@
         <v>20921</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2882,13 +2882,13 @@
         <v>2020</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -2897,13 +2897,13 @@
         <v>22941</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2918,13 @@
         <v>384577</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7">
         <v>263</v>
@@ -2933,10 +2933,10 @@
         <v>288327</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -2948,13 +2948,13 @@
         <v>672905</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3022,13 @@
         <v>30166</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3037,13 +3037,13 @@
         <v>8810</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3052,13 +3052,13 @@
         <v>38976</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3073,13 @@
         <v>284511</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>198</v>
@@ -3088,13 +3088,13 @@
         <v>221086</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>455</v>
@@ -3103,13 +3103,13 @@
         <v>505597</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3177,13 @@
         <v>23472</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3192,13 +3192,13 @@
         <v>4709</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -3207,13 +3207,13 @@
         <v>28182</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3228,13 @@
         <v>340866</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>273</v>
@@ -3243,13 +3243,13 @@
         <v>288535</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>605</v>
@@ -3258,13 +3258,13 @@
         <v>629400</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3332,13 @@
         <v>82847</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -3347,13 +3347,13 @@
         <v>16545</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M19" s="7">
         <v>91</v>
@@ -3362,13 +3362,13 @@
         <v>99392</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3383,13 @@
         <v>1271249</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H20" s="7">
         <v>879</v>
@@ -3398,13 +3398,13 @@
         <v>956644</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M20" s="7">
         <v>2073</v>
@@ -3413,13 +3413,13 @@
         <v>2227892</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,7 +3496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509B747F-2A4D-48FE-B3E6-AAD8378E3642}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0070DB-7BD6-4D0A-AE71-D7ECC5588796}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3650,13 +3650,13 @@
         <v>3180</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3671,13 @@
         <v>75539</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H5" s="7">
         <v>50</v>
@@ -3689,7 +3689,7 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3701,13 +3701,13 @@
         <v>125534</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3775,13 @@
         <v>12674</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3790,13 +3790,13 @@
         <v>2577</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3805,10 +3805,10 @@
         <v>15251</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>231</v>
@@ -3844,10 +3844,10 @@
         <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>464</v>
@@ -3856,13 +3856,13 @@
         <v>476832</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3930,13 @@
         <v>18647</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3945,13 +3945,13 @@
         <v>2823</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -3960,13 +3960,13 @@
         <v>21470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3981,13 @@
         <v>532614</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>251</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>358</v>
@@ -3996,13 +3996,13 @@
         <v>372113</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>848</v>
@@ -4011,13 +4011,13 @@
         <v>904727</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4085,13 @@
         <v>15203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4100,13 +4100,13 @@
         <v>4898</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -4115,13 +4115,13 @@
         <v>20100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4136,13 @@
         <v>433429</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H14" s="7">
         <v>290</v>
@@ -4151,13 +4151,13 @@
         <v>300612</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>684</v>
@@ -4166,13 +4166,13 @@
         <v>734042</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4240,13 @@
         <v>35884</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4255,13 +4255,13 @@
         <v>13011</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -4270,13 +4270,13 @@
         <v>48895</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4291,13 @@
         <v>446120</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H17" s="7">
         <v>355</v>
@@ -4306,13 +4306,13 @@
         <v>379289</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>799</v>
@@ -4321,13 +4321,13 @@
         <v>825409</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,13 +4395,13 @@
         <v>85588</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -4410,13 +4410,13 @@
         <v>23308</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -4425,13 +4425,13 @@
         <v>108896</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4446,13 @@
         <v>1785021</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>1232</v>
@@ -4461,13 +4461,13 @@
         <v>1281522</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M20" s="7">
         <v>2917</v>

--- a/data/trans_orig/P2404-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2404-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B708D52C-E747-479F-A485-AAD8DEE5AACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A80DE84-5818-46F6-B7AE-E0A584513F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF7806A7-111D-4AA3-B7D7-E0651D4B2B48}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E38282FD-12E4-4468-9C43-B8AE1EDE86D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -76,10 +76,10 @@
     <t>11,54%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -94,10 +94,10 @@
     <t>7,99%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,10 +106,10 @@
     <t>88,46%</t>
   </si>
   <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -124,22 +124,22 @@
     <t>92,01%</t>
   </si>
   <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
   </si>
   <si>
     <t>1,92%</t>
@@ -151,19 +151,19 @@
     <t>3,45%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>98,08%</t>
@@ -175,790 +175,790 @@
     <t>96,55%</t>
   </si>
   <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>4,51%</t>
   </si>
   <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 33,26%)</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2016 (Tasa respuesta: 45,99%)</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>97,17%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2015 (Tasa respuesta: 45,99%)</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
   </si>
 </sst>
 </file>
@@ -1370,7 +1370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0053192-1ADF-410D-86BE-673AFF4B936D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427BF0E4-9C9D-4516-9CEF-0C95009AC847}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2433,7 +2433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF40D10-B550-4538-82F5-E696986CD1C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A29AE1B-D2BB-40D5-864E-4163D768FCC5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2745,10 +2745,10 @@
         <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2763,13 @@
         <v>210361</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H8" s="7">
         <v>128</v>
@@ -2778,10 +2778,10 @@
         <v>138678</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -2796,10 +2796,10 @@
         <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2867,13 @@
         <v>20921</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2882,13 +2882,13 @@
         <v>2020</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -2897,13 +2897,13 @@
         <v>22941</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2918,13 @@
         <v>384577</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="H11" s="7">
         <v>263</v>
@@ -2933,10 +2933,10 @@
         <v>288327</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -2948,10 +2948,10 @@
         <v>672905</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>159</v>
@@ -3022,13 +3022,13 @@
         <v>30166</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3037,13 +3037,13 @@
         <v>8810</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3052,13 +3052,13 @@
         <v>38976</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3073,13 @@
         <v>284511</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>198</v>
@@ -3088,13 +3088,13 @@
         <v>221086</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>455</v>
@@ -3103,13 +3103,13 @@
         <v>505597</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3177,13 @@
         <v>23472</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3192,13 +3192,13 @@
         <v>4709</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -3207,13 +3207,13 @@
         <v>28182</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3228,13 @@
         <v>340866</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>273</v>
@@ -3365,10 +3365,10 @@
         <v>202</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3383,13 @@
         <v>1271249</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H20" s="7">
         <v>879</v>
@@ -3398,13 +3398,13 @@
         <v>956644</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" s="7">
         <v>2073</v>
@@ -3413,13 +3413,13 @@
         <v>2227892</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,7 +3496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0070DB-7BD6-4D0A-AE71-D7ECC5588796}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D5379D-5D17-4E58-ABEE-68912B466EDF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3513,7 +3513,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3620,13 +3620,13 @@
         <v>3180</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>214</v>
+        <v>68</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3650,13 +3650,13 @@
         <v>3180</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3671,13 @@
         <v>75539</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="H5" s="7">
         <v>50</v>
@@ -3707,7 +3707,7 @@
         <v>224</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,7 +3796,7 @@
         <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3805,13 +3805,13 @@
         <v>15251</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>71</v>
+        <v>231</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3826,13 @@
         <v>297318</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H8" s="7">
         <v>179</v>
@@ -3841,13 +3841,13 @@
         <v>179514</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>464</v>
@@ -3856,13 +3856,13 @@
         <v>476832</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3930,13 @@
         <v>18647</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3945,13 +3945,13 @@
         <v>2823</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -3960,13 +3960,13 @@
         <v>21470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3981,13 @@
         <v>532614</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>153</v>
+        <v>250</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H11" s="7">
         <v>358</v>
@@ -3996,13 +3996,13 @@
         <v>372113</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>848</v>
@@ -4011,13 +4011,13 @@
         <v>904727</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4085,13 @@
         <v>15203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4100,13 +4100,13 @@
         <v>4898</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -4115,13 +4115,13 @@
         <v>20100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4136,13 @@
         <v>433429</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H14" s="7">
         <v>290</v>
@@ -4151,13 +4151,13 @@
         <v>300612</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>684</v>
@@ -4258,10 +4258,10 @@
         <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -4270,13 +4270,13 @@
         <v>48895</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4291,13 @@
         <v>446120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>355</v>
@@ -4306,13 +4306,13 @@
         <v>379289</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>799</v>
@@ -4321,13 +4321,13 @@
         <v>825409</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,13 +4395,13 @@
         <v>85588</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -4410,13 +4410,13 @@
         <v>23308</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -4425,13 +4425,13 @@
         <v>108896</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4446,13 @@
         <v>1785021</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>1232</v>
@@ -4461,13 +4461,13 @@
         <v>1281522</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>2917</v>
@@ -4476,10 +4476,10 @@
         <v>3066543</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>306</v>

--- a/data/trans_orig/P2404-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2404-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A80DE84-5818-46F6-B7AE-E0A584513F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A7FE9D9-960B-4FC8-B52D-27C416506011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E38282FD-12E4-4468-9C43-B8AE1EDE86D6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1AEF820A-B318-44BA-957A-CC47A7C1BA15}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="307">
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2007 (Tasa respuesta: 33,7%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="275">
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -70,16 +70,16 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -88,877 +88,781 @@
     <t>0%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>92,07%</t>
+    <t>98,51%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2016 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>94,75%</t>
   </si>
   <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>98,99%</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2016 (Tasa respuesta: 45,99%)</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
 </sst>
 </file>
@@ -1370,7 +1274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427BF0E4-9C9D-4516-9CEF-0C95009AC847}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1196E19C-C0A1-489E-90FB-693B4A98ED11}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1539,10 +1443,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="D5" s="7">
-        <v>41198</v>
+        <v>109985</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1554,10 +1458,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="I5" s="7">
-        <v>20698</v>
+        <v>112755</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1569,10 +1473,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="N5" s="7">
-        <v>61896</v>
+        <v>222740</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1590,10 +1494,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="D6" s="7">
-        <v>46571</v>
+        <v>115358</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -1605,10 +1509,10 @@
         <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="I6" s="7">
-        <v>20698</v>
+        <v>112755</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -1620,10 +1524,10 @@
         <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="N6" s="7">
-        <v>67269</v>
+        <v>228113</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -1694,10 +1598,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>255</v>
+        <v>566</v>
       </c>
       <c r="D8" s="7">
-        <v>261124</v>
+        <v>567068</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -1709,10 +1613,10 @@
         <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>137</v>
+        <v>566</v>
       </c>
       <c r="I8" s="7">
-        <v>138392</v>
+        <v>572887</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -1724,10 +1628,10 @@
         <v>24</v>
       </c>
       <c r="M8" s="7">
-        <v>392</v>
+        <v>1132</v>
       </c>
       <c r="N8" s="7">
-        <v>399516</v>
+        <v>1139955</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>44</v>
@@ -1745,10 +1649,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>267</v>
+        <v>578</v>
       </c>
       <c r="D9" s="7">
-        <v>272710</v>
+        <v>578654</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -1760,10 +1664,10 @@
         <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>139</v>
+        <v>568</v>
       </c>
       <c r="I9" s="7">
-        <v>141101</v>
+        <v>575596</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -1775,10 +1679,10 @@
         <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>406</v>
+        <v>1146</v>
       </c>
       <c r="N9" s="7">
-        <v>413811</v>
+        <v>1154250</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -1849,10 +1753,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>361</v>
+        <v>878</v>
       </c>
       <c r="D11" s="7">
-        <v>387952</v>
+        <v>942430</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>57</v>
@@ -1864,10 +1768,10 @@
         <v>59</v>
       </c>
       <c r="H11" s="7">
-        <v>210</v>
+        <v>903</v>
       </c>
       <c r="I11" s="7">
-        <v>222116</v>
+        <v>963373</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>60</v>
@@ -1879,10 +1783,10 @@
         <v>62</v>
       </c>
       <c r="M11" s="7">
-        <v>571</v>
+        <v>1781</v>
       </c>
       <c r="N11" s="7">
-        <v>610068</v>
+        <v>1905803</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>63</v>
@@ -1900,10 +1804,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>378</v>
+        <v>895</v>
       </c>
       <c r="D12" s="7">
-        <v>406280</v>
+        <v>960758</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -1915,10 +1819,10 @@
         <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>215</v>
+        <v>908</v>
       </c>
       <c r="I12" s="7">
-        <v>227136</v>
+        <v>968393</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -1930,10 +1834,10 @@
         <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>593</v>
+        <v>1803</v>
       </c>
       <c r="N12" s="7">
-        <v>633416</v>
+        <v>1929151</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -1989,13 +1893,13 @@
         <v>13963</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,49 +1908,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>231</v>
+        <v>634</v>
       </c>
       <c r="D14" s="7">
-        <v>246955</v>
+        <v>671489</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>689</v>
+      </c>
+      <c r="I14" s="7">
+        <v>676899</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="7">
-        <v>169</v>
-      </c>
-      <c r="I14" s="7">
-        <v>163059</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1323</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1348387</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="7">
-        <v>400</v>
-      </c>
-      <c r="N14" s="7">
-        <v>410013</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,10 +1959,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>253975</v>
+        <v>678509</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -2070,10 +1974,10 @@
         <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>176</v>
+        <v>696</v>
       </c>
       <c r="I15" s="7">
-        <v>170001</v>
+        <v>683841</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -2085,10 +1989,10 @@
         <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>414</v>
+        <v>1337</v>
       </c>
       <c r="N15" s="7">
-        <v>423976</v>
+        <v>1362350</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -2102,7 +2006,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2114,13 +2018,13 @@
         <v>31365</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -2129,13 +2033,13 @@
         <v>17273</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -2144,13 +2048,13 @@
         <v>48638</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,49 +2063,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>392</v>
+        <v>963</v>
       </c>
       <c r="D17" s="7">
-        <v>374380</v>
+        <v>910857</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="7">
+        <v>981</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1021339</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="7">
-        <v>276</v>
-      </c>
-      <c r="I17" s="7">
-        <v>287121</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1944</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1932196</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M17" s="7">
-        <v>668</v>
-      </c>
-      <c r="N17" s="7">
-        <v>661501</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,10 +2114,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>423</v>
+        <v>994</v>
       </c>
       <c r="D18" s="7">
-        <v>405745</v>
+        <v>942222</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -2225,10 +2129,10 @@
         <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>292</v>
+        <v>997</v>
       </c>
       <c r="I18" s="7">
-        <v>304394</v>
+        <v>1038612</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -2240,10 +2144,10 @@
         <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>715</v>
+        <v>1991</v>
       </c>
       <c r="N18" s="7">
-        <v>710139</v>
+        <v>1980834</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -2269,13 +2173,13 @@
         <v>73673</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -2284,13 +2188,13 @@
         <v>31944</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>102</v>
@@ -2299,13 +2203,13 @@
         <v>105617</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,49 +2218,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>1277</v>
+        <v>3141</v>
       </c>
       <c r="D20" s="7">
-        <v>1311608</v>
+        <v>3201828</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="7">
+        <v>3267</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3347254</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="7">
+        <v>6408</v>
+      </c>
+      <c r="N20" s="7">
+        <v>6549081</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="H20" s="7">
-        <v>815</v>
-      </c>
-      <c r="I20" s="7">
-        <v>831386</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2092</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2142995</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,10 +2269,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1349</v>
+        <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>1385281</v>
+        <v>3275501</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -2380,10 +2284,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>845</v>
+        <v>3297</v>
       </c>
       <c r="I21" s="7">
-        <v>863330</v>
+        <v>3379198</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -2395,10 +2299,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>2194</v>
+        <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>2248612</v>
+        <v>6654698</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -2412,7 +2316,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2433,7 +2337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A29AE1B-D2BB-40D5-864E-4163D768FCC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DF1FF1-428A-4E96-B3E9-1993562C774D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2450,7 +2354,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2557,13 +2461,13 @@
         <v>727</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2578,7 +2482,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2587,13 +2491,13 @@
         <v>727</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,46 +2506,46 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="D5" s="7">
-        <v>50933</v>
+        <v>115038</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="I5" s="7">
-        <v>20018</v>
+        <v>111905</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="N5" s="7">
-        <v>70951</v>
+        <v>226943</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>24</v>
@@ -2653,10 +2557,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="D6" s="7">
-        <v>51660</v>
+        <v>115765</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -2668,10 +2572,10 @@
         <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="I6" s="7">
-        <v>20018</v>
+        <v>111905</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -2683,10 +2587,10 @@
         <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="N6" s="7">
-        <v>71678</v>
+        <v>227670</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -2712,13 +2616,13 @@
         <v>7561</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2727,13 +2631,13 @@
         <v>1005</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -2742,13 +2646,13 @@
         <v>8566</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,49 +2661,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>201</v>
+        <v>545</v>
       </c>
       <c r="D8" s="7">
-        <v>210361</v>
+        <v>580143</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>128</v>
+        <v>548</v>
       </c>
       <c r="I8" s="7">
-        <v>138678</v>
+        <v>582001</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M8" s="7">
-        <v>329</v>
+        <v>1093</v>
       </c>
       <c r="N8" s="7">
-        <v>349040</v>
+        <v>1162144</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,10 +2712,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>208</v>
+        <v>552</v>
       </c>
       <c r="D9" s="7">
-        <v>217922</v>
+        <v>587704</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -2823,10 +2727,10 @@
         <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>129</v>
+        <v>549</v>
       </c>
       <c r="I9" s="7">
-        <v>139683</v>
+        <v>583006</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -2838,10 +2742,10 @@
         <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>337</v>
+        <v>1101</v>
       </c>
       <c r="N9" s="7">
-        <v>357606</v>
+        <v>1170710</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -2867,13 +2771,13 @@
         <v>20921</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2882,13 +2786,13 @@
         <v>2020</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -2897,13 +2801,13 @@
         <v>22941</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,49 +2816,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>353</v>
+        <v>917</v>
       </c>
       <c r="D11" s="7">
-        <v>384577</v>
+        <v>995997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
-        <v>263</v>
+        <v>938</v>
       </c>
       <c r="I11" s="7">
-        <v>288327</v>
+        <v>1030164</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M11" s="7">
-        <v>616</v>
+        <v>1855</v>
       </c>
       <c r="N11" s="7">
-        <v>672905</v>
+        <v>2026161</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,10 +2867,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>371</v>
+        <v>935</v>
       </c>
       <c r="D12" s="7">
-        <v>405498</v>
+        <v>1016918</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -2978,10 +2882,10 @@
         <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>265</v>
+        <v>940</v>
       </c>
       <c r="I12" s="7">
-        <v>290347</v>
+        <v>1032184</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -2993,10 +2897,10 @@
         <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>636</v>
+        <v>1875</v>
       </c>
       <c r="N12" s="7">
-        <v>695846</v>
+        <v>2049102</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -3022,13 +2926,13 @@
         <v>30166</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3037,13 +2941,13 @@
         <v>8810</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3052,13 +2956,13 @@
         <v>38976</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,49 +2971,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>257</v>
+        <v>661</v>
       </c>
       <c r="D14" s="7">
-        <v>284511</v>
+        <v>727457</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H14" s="7">
-        <v>198</v>
+        <v>696</v>
       </c>
       <c r="I14" s="7">
-        <v>221086</v>
+        <v>767368</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>174</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
-        <v>455</v>
+        <v>1357</v>
       </c>
       <c r="N14" s="7">
-        <v>505597</v>
+        <v>1494825</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,10 +3022,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>285</v>
+        <v>689</v>
       </c>
       <c r="D15" s="7">
-        <v>314677</v>
+        <v>757623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -3133,10 +3037,10 @@
         <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>206</v>
+        <v>704</v>
       </c>
       <c r="I15" s="7">
-        <v>229896</v>
+        <v>776178</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -3148,10 +3052,10 @@
         <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>491</v>
+        <v>1393</v>
       </c>
       <c r="N15" s="7">
-        <v>544573</v>
+        <v>1533801</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -3165,7 +3069,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3177,13 +3081,13 @@
         <v>23472</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3192,13 +3096,13 @@
         <v>4709</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -3207,13 +3111,13 @@
         <v>28182</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,49 +3126,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>332</v>
+        <v>888</v>
       </c>
       <c r="D17" s="7">
-        <v>340866</v>
+        <v>923326</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="H17" s="7">
-        <v>273</v>
+        <v>996</v>
       </c>
       <c r="I17" s="7">
-        <v>288535</v>
+        <v>1045264</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="M17" s="7">
-        <v>605</v>
+        <v>1884</v>
       </c>
       <c r="N17" s="7">
-        <v>629400</v>
+        <v>1968590</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,10 +3177,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>353</v>
+        <v>909</v>
       </c>
       <c r="D18" s="7">
-        <v>364338</v>
+        <v>946798</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -3288,10 +3192,10 @@
         <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>278</v>
+        <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>293244</v>
+        <v>1049973</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -3303,10 +3207,10 @@
         <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>631</v>
+        <v>1910</v>
       </c>
       <c r="N18" s="7">
-        <v>657582</v>
+        <v>1996772</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -3332,13 +3236,13 @@
         <v>82847</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -3347,13 +3251,13 @@
         <v>16545</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="M19" s="7">
         <v>91</v>
@@ -3362,13 +3266,13 @@
         <v>99392</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,49 +3281,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>1194</v>
+        <v>3132</v>
       </c>
       <c r="D20" s="7">
-        <v>1271249</v>
+        <v>3341961</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="H20" s="7">
-        <v>879</v>
+        <v>3277</v>
       </c>
       <c r="I20" s="7">
-        <v>956644</v>
+        <v>3536701</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="M20" s="7">
-        <v>2073</v>
+        <v>6409</v>
       </c>
       <c r="N20" s="7">
-        <v>2227892</v>
+        <v>6878662</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,10 +3332,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1269</v>
+        <v>3207</v>
       </c>
       <c r="D21" s="7">
-        <v>1354096</v>
+        <v>3424808</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -3443,10 +3347,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>895</v>
+        <v>3293</v>
       </c>
       <c r="I21" s="7">
-        <v>973189</v>
+        <v>3553246</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -3458,10 +3362,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>2164</v>
+        <v>6500</v>
       </c>
       <c r="N21" s="7">
-        <v>2327284</v>
+        <v>6978054</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -3475,7 +3379,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3496,7 +3400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D5379D-5D17-4E58-ABEE-68912B466EDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57CA67B-2FA6-4949-AEF7-8101F9D4D5A0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3513,7 +3417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3620,13 +3524,13 @@
         <v>3180</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3641,7 +3545,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3650,13 +3554,13 @@
         <v>3180</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,49 +3569,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="D5" s="7">
-        <v>75539</v>
+        <v>113366</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="I5" s="7">
-        <v>49995</v>
+        <v>113360</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="N5" s="7">
-        <v>125534</v>
+        <v>226726</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,10 +3620,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="D6" s="7">
-        <v>78719</v>
+        <v>116546</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -3731,10 +3635,10 @@
         <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="I6" s="7">
-        <v>49995</v>
+        <v>113360</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -3746,10 +3650,10 @@
         <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="N6" s="7">
-        <v>128714</v>
+        <v>229906</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -3775,13 +3679,13 @@
         <v>12674</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3790,13 +3694,13 @@
         <v>2577</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>230</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3805,13 +3709,13 @@
         <v>15251</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,49 +3724,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>285</v>
+        <v>527</v>
       </c>
       <c r="D8" s="7">
-        <v>297318</v>
+        <v>544634</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="H8" s="7">
-        <v>179</v>
+        <v>546</v>
       </c>
       <c r="I8" s="7">
-        <v>179514</v>
+        <v>554300</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
-        <v>464</v>
+        <v>1073</v>
       </c>
       <c r="N8" s="7">
-        <v>476832</v>
+        <v>1098934</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,10 +3775,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>296</v>
+        <v>538</v>
       </c>
       <c r="D9" s="7">
-        <v>309992</v>
+        <v>557308</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -3886,10 +3790,10 @@
         <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>182</v>
+        <v>549</v>
       </c>
       <c r="I9" s="7">
-        <v>182091</v>
+        <v>556877</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -3901,10 +3805,10 @@
         <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>478</v>
+        <v>1087</v>
       </c>
       <c r="N9" s="7">
-        <v>492083</v>
+        <v>1114185</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -3930,13 +3834,13 @@
         <v>18647</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>241</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3945,13 +3849,13 @@
         <v>2823</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -3960,13 +3864,13 @@
         <v>21470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,49 +3879,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>490</v>
+        <v>931</v>
       </c>
       <c r="D11" s="7">
-        <v>532614</v>
+        <v>1001600</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="H11" s="7">
-        <v>358</v>
+        <v>972</v>
       </c>
       <c r="I11" s="7">
-        <v>372113</v>
+        <v>1038242</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="M11" s="7">
-        <v>848</v>
+        <v>1903</v>
       </c>
       <c r="N11" s="7">
-        <v>904727</v>
+        <v>2039842</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>256</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,10 +3930,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>508</v>
+        <v>949</v>
       </c>
       <c r="D12" s="7">
-        <v>551261</v>
+        <v>1020247</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -4041,10 +3945,10 @@
         <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>361</v>
+        <v>975</v>
       </c>
       <c r="I12" s="7">
-        <v>374936</v>
+        <v>1041065</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -4056,10 +3960,10 @@
         <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>869</v>
+        <v>1924</v>
       </c>
       <c r="N12" s="7">
-        <v>926197</v>
+        <v>2061312</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -4085,13 +3989,13 @@
         <v>15203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4100,13 +4004,13 @@
         <v>4898</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>118</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -4115,13 +4019,13 @@
         <v>20100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,49 +4034,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>394</v>
+        <v>677</v>
       </c>
       <c r="D14" s="7">
-        <v>433429</v>
+        <v>738590</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
-        <v>290</v>
+        <v>727</v>
       </c>
       <c r="I14" s="7">
-        <v>300612</v>
+        <v>776083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>123</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
-        <v>684</v>
+        <v>1404</v>
       </c>
       <c r="N14" s="7">
-        <v>734042</v>
+        <v>1514673</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,10 +4085,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>408</v>
+        <v>691</v>
       </c>
       <c r="D15" s="7">
-        <v>448632</v>
+        <v>753793</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -4196,10 +4100,10 @@
         <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>295</v>
+        <v>732</v>
       </c>
       <c r="I15" s="7">
-        <v>305510</v>
+        <v>780981</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -4211,10 +4115,10 @@
         <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>703</v>
+        <v>1423</v>
       </c>
       <c r="N15" s="7">
-        <v>754142</v>
+        <v>1534773</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -4228,7 +4132,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4240,13 +4144,13 @@
         <v>35884</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4255,13 +4159,13 @@
         <v>13011</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>140</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>277</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -4270,13 +4174,13 @@
         <v>48895</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,49 +4189,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>444</v>
+        <v>894</v>
       </c>
       <c r="D17" s="7">
-        <v>446120</v>
+        <v>899826</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="H17" s="7">
-        <v>355</v>
+        <v>947</v>
       </c>
       <c r="I17" s="7">
-        <v>379289</v>
+        <v>1029482</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>148</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>123</v>
       </c>
       <c r="M17" s="7">
-        <v>799</v>
+        <v>1841</v>
       </c>
       <c r="N17" s="7">
-        <v>825409</v>
+        <v>1929309</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,10 +4240,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>480</v>
+        <v>930</v>
       </c>
       <c r="D18" s="7">
-        <v>482004</v>
+        <v>935710</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -4351,10 +4255,10 @@
         <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>366</v>
+        <v>958</v>
       </c>
       <c r="I18" s="7">
-        <v>392300</v>
+        <v>1042493</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -4366,10 +4270,10 @@
         <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>846</v>
+        <v>1888</v>
       </c>
       <c r="N18" s="7">
-        <v>874304</v>
+        <v>1978204</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -4395,13 +4299,13 @@
         <v>85588</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>292</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -4410,13 +4314,13 @@
         <v>23308</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>294</v>
+        <v>145</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -4425,13 +4329,13 @@
         <v>108896</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>230</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,49 +4344,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>1685</v>
+        <v>3139</v>
       </c>
       <c r="D20" s="7">
-        <v>1785021</v>
+        <v>3298016</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>39</v>
       </c>
       <c r="H20" s="7">
-        <v>1232</v>
+        <v>3307</v>
       </c>
       <c r="I20" s="7">
-        <v>1281522</v>
+        <v>3511468</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>302</v>
+        <v>153</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="M20" s="7">
-        <v>2917</v>
+        <v>6446</v>
       </c>
       <c r="N20" s="7">
-        <v>3066543</v>
+        <v>6809484</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,10 +4395,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1767</v>
+        <v>3221</v>
       </c>
       <c r="D21" s="7">
-        <v>1870609</v>
+        <v>3383604</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -4506,10 +4410,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>1254</v>
+        <v>3329</v>
       </c>
       <c r="I21" s="7">
-        <v>1304830</v>
+        <v>3534776</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -4521,10 +4425,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>3021</v>
+        <v>6550</v>
       </c>
       <c r="N21" s="7">
-        <v>3175439</v>
+        <v>6918380</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -4538,7 +4442,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
